--- a/biology/Zoologie/Betadevario_ramachandrani/Betadevario_ramachandrani.xlsx
+++ b/biology/Zoologie/Betadevario_ramachandrani/Betadevario_ramachandrani.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Betadevario
 Betadevario ramachandrani, unique représentant du genre Betadevario, est une espèce de poissons d'eau douce téléostéens de la famille des Cyprinidae (ordre des Cypriniformes). 
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Inde[1]. Il se rencontre uniquement dans le bassin supérieur de la rivière Sita (État du Karnataka)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Inde. Il se rencontre uniquement dans le bassin supérieur de la rivière Sita (État du Karnataka).
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Betadevario ramachandrani peut mesurer jusqu'à 61 mm, queue non comprise[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Betadevario ramachandrani peut mesurer jusqu'à 61 mm, queue non comprise.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Betadevario et l'espèce Betadevario ramachandrani ont été décrits en 2010 par Padinhare Kattil Pramod (d), Fang Fang (d), K. Rema Devi (d), Te-Yu Liao (d), T. J. Indra (d), K. S. Jameela Beevi (d) et Sven Oscar Kullander (d)[3],[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Betadevario et l'espèce Betadevario ramachandrani ont été décrits en 2010 par Padinhare Kattil Pramod (d), Fang Fang (d), K. Rema Devi (d), Te-Yu Liao (d), T. J. Indra (d), K. S. Jameela Beevi (d) et Sven Oscar Kullander (d),.
 </t>
         </is>
       </c>
@@ -605,10 +623,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Betadevario, composé du grec ancien βῆτα, bếta, « B », la deuxième lettre de l'alphabet grec (β), et du genre Devario, signifie en quelque sorte le « deuxième Devario »[5]. Par ailleurs c'est également une référence à l'aquariophile indien Beta Mahatvara « qui a fait de gros efforts pour rendre le matériel disponible pour l'étude »[5].
-L'épithète spécifique, ramachandrani, lui a été donnée en l'honneur d'Alappat Ramachandran (1957-) de la Cochin University of Science and Technology (en) pour pour sa contribution à la gestion de la pêche et de la production de fruits de mer et à ses études sur les poissons ornementaux indigènes[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Betadevario, composé du grec ancien βῆτα, bếta, « B », la deuxième lettre de l'alphabet grec (β), et du genre Devario, signifie en quelque sorte le « deuxième Devario ». Par ailleurs c'est également une référence à l'aquariophile indien Beta Mahatvara « qui a fait de gros efforts pour rendre le matériel disponible pour l'étude ».
+L'épithète spécifique, ramachandrani, lui a été donnée en l'honneur d'Alappat Ramachandran (1957-) de la Cochin University of Science and Technology (en) pour pour sa contribution à la gestion de la pêche et de la production de fruits de mer et à ses études sur les poissons ornementaux indigènes.
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) P. K. Pramod, Fang Fang, K. Rema Devi, Te-Yu Liao, T. J. Indra, K. S. Jameela Beevi et Sven O. Kullander, « Betadevario ramachandrani, a new danionine genus and species from the Western Ghats of India (Teleostei: Cyprinidae: Danioninae) », Zootaxa, Magnolia Press (d), vol. 2519, no 1,‎ 28 juin 2010, p. 31-47 (ISSN 1175-5334 et 1175-5326, OCLC 49030618, DOI 10.11646/ZOOTAXA.2519.1.2, lire en ligne)</t>
         </is>
